--- a/casestudy/express.js-2/ExpressExperiments.xlsx
+++ b/casestudy/express.js-2/ExpressExperiments.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/bugs.js-study/Express/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/express.js-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12329D-7B1F-C04C-B0F0-29A25207317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F825B13-0623-AA45-959D-24FBA5164A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{4FE0EC7D-01FA-454F-B2A5-BE08A4EE20E2}"/>
+    <workbookView xWindow="6440" yWindow="3800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4FE0EC7D-01FA-454F-B2A5-BE08A4EE20E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bug 2" sheetId="1" r:id="rId1"/>
+    <sheet name="bug" sheetId="2" r:id="rId1"/>
+    <sheet name="mutants" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>bug#</t>
   </si>
@@ -80,16 +81,7 @@
     <t>experiment 1</t>
   </si>
   <si>
-    <t>Behaves the same as the fixed version, i.e., does not affect the outcome of the tests</t>
-  </si>
-  <si>
-    <t>Behaves differently from the buggy version and behaves differently from the fixed version.</t>
-  </si>
-  <si>
     <t>Fixes one of the two test failures associated with the original bug</t>
-  </si>
-  <si>
-    <t>Same test failures as the original bug.</t>
   </si>
   <si>
     <t>experiment 2</t>
@@ -299,12 +291,557 @@
   <si>
     <t>experiment 4</t>
   </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>buggy code</t>
+  </si>
+  <si>
+    <t>fixed code</t>
+  </si>
+  <si>
+    <t>test failures</t>
+  </si>
+  <si>
+    <t>if (!trust(this.connection.remoteAddress, 0)) {</t>
+  </si>
+  <si>
+    <t>run tests using node_modules/.bin/_mocha --require test/support/env  test/ test/acceptance/</t>
+  </si>
+  <si>
+    <t>use Node v 5.12.0</t>
+  </si>
+  <si>
+    <t>unrelated test failures in test/res.redirect.js and test/res.sendfile.js</t>
+  </si>
+  <si>
+    <t>if (!trust(this.connection.remoteAddress)) {</t>
+  </si>
+  <si>
+    <t>lib/request.js</t>
+  </si>
+  <si>
+    <t>2 failing
+  1) req .protocol when "trust proxy" is enabled when trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .secure when X-Forwarded-Proto is present when "trust proxy" trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>6 failing
+  1) req .protocol when "trust proxy" is enabled should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  3) req .protocol when "trust proxy" is disabled should ignore X-Forwarded-Proto:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  4) req .secure when X-Forwarded-Proto is present should return false when http:
+     Error: expected 'no' response body, got 'yes'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  5) req .secure when X-Forwarded-Proto is present should return true when "trust proxy" is enabled:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  6) req .secure when X-Forwarded-Proto is present should return true when initial proxy is https:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>6 test failures, 1 of which is the same as one of the failures caused by the original bug</t>
+  </si>
+  <si>
+    <t>8 failing
+  1) req .protocol when "trust proxy" is enabled should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  3) req .protocol when "trust proxy" is enabled when trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  4) req .protocol when "trust proxy" is disabled should ignore X-Forwarded-Proto:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  5) req .secure when X-Forwarded-Proto is present should return false when http:
+     Error: expected 'no' response body, got 'yes'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  6) req .secure when X-Forwarded-Proto is present should return true when "trust proxy" is enabled:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  7) req .secure when X-Forwarded-Proto is present should return true when initial proxy is https:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  8) req .secure when X-Forwarded-Proto is present when "trust proxy" trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>8 test failures, of which 2 are the same as the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>surviving mutant -- does not cause any test failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 failing
+  1) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .protocol when "trust proxy" is disabled should ignore X-Forwarded-Proto:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  3) req .secure when X-Forwarded-Proto is present should return false when http:
+     Error: expected 'no' response body, got 'yes'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>3 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>13 failing
+  1) req .protocol should return the protocol string:
+     Error: expected 'http' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:11:20)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .protocol when "trust proxy" is enabled should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:26:22)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  3) req .protocol when "trust proxy" is enabled should default to the socket addr if X-Forwarded-Proto not present:
+     Error: expected 'https' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:42:22)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  4) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:56:22)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  5) req .protocol when "trust proxy" is enabled should default to http:
+     Error: expected 'http' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:71:22)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  6) req .protocol when "trust proxy" is enabled when trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:86:24)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  7) req .protocol when "trust proxy" is disabled should ignore X-Forwarded-Proto:
+     Error: expected 'http' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.protocol.js:102:22)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  8) req .secure when X-Forwarded-Proto is missing should return false when http:
+     Error: expected 'no' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:12:23&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:33:10)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  9) req .secure when X-Forwarded-Proto is present should return false when http:
+     Error: expected 'no' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:28:23&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:33:10)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  10) req .secure when X-Forwarded-Proto is present should return true when "trust proxy" is enabled:
+     Error: expected 'yes' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:43:23&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:33:10)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  11) req .secure when X-Forwarded-Proto is present should return false when initial proxy is http:
+     Error: expected 'no' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:58:23&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:33:10)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  12) req .secure when X-Forwarded-Proto is present should return true when initial proxy is https:
+     Error: expected 'yes' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:73:23&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:33:10)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.expressInit [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/middleware.js:30:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.query [as handle] (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/middleware/query.js:43:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at next (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:174:15)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Function.app.handle (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/proto.js:182:3)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.app (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/connect/lib/connect.js:67:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at emitTwo (events.js:100:13)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Server.emit (events.js:185:7)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnIncoming [as onIncoming] (_http_server.js:542:12)&lt;br&gt; &amp;nbsp; &amp;nbsp;at HTTPParser.parserOnHeadersComplete (_http_common.js:103:23)\n'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  13) req .secure when X-Forwarded-Proto is present when "trust proxy" trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'yes' response body, got 'TypeError: Cannot read property &amp;#39;remoteAddress&amp;#39; of undefined&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.protocol (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:361:36)&lt;br&gt; &amp;nbsp; &amp;nbsp;at IncomingMessage.secure (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/request.js:381:25)&lt;br&gt; &amp;nbsp; &amp;nbsp;at /Users/franktip/projects/bugs.js/bug-dataset/output/express/test/req.secure.js:89:25&lt;br&gt; &amp;nbsp; &amp;nbsp;at callbacks (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:164:37)&lt;br&gt; &amp;nbsp; &amp;nbsp;at param (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:138:11)&lt;br&gt; &amp;nbsp; &amp;nbsp;at pass (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:145:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Router._dispatch (/Users/franktip/projects/bugs.js/bug-dataset/output/express/lib/router/index.js:173:5)&lt;br&gt; &amp;nbsp; &amp;nbsp;at Object.router (/Users/franktip/projects/bugs.js/bug-dataset</t>
+  </si>
+  <si>
+    <t>13 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 failing
+  1) req .protocol when "trust proxy" is enabled should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  3) req .protocol when "trust proxy" is enabled when trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  4) req .protocol when "trust proxy" is disabled should ignore X-Forwarded-Proto:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  5) req .secure when X-Forwarded-Proto is present should return false when http:
+     Error: expected 'no' response body, got 'yes'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  6) req .secure when X-Forwarded-Proto is present should return true when "trust proxy" is enabled:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  7) req .secure when X-Forwarded-Proto is present should return true when initial proxy is https:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  8) req .secure when X-Forwarded-Proto is present when "trust proxy" trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>8 test failures, 2 of which are the same as the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) req .protocol when "trust proxy" is enabled should ignore X-Forwarded-Proto if socket addr not trusted:
+     Error: expected 'http' response body, got 'https'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>?2 failing
+  1) req .protocol when "trust proxy" is enabled when trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'https' response body, got 'http'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)
+  2) req .secure when X-Forwarded-Proto is present when "trust proxy" trusting hop count should respect X-Forwarded-Proto:
+     Error: expected 'yes' response body, got 'no'
+      at error (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:235:13)
+      at Test.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:180:21)
+      at Server.assert (/Users/franktip/projects/bugs.js/bug-dataset/output/express/node_modules/supertest/lib/test.js:132:12)
+      at Server.g (events.js:273:16)
+      at emitNone (events.js:80:13)
+      at Server.emit (events.js:179:7)
+      at emitCloseNT (net.js:1541:8)
+      at _combinedTickCallback (internal/process/next_tick.js:71:11)
+      at process._tickCallback (internal/process/next_tick.js:98:9)</t>
+  </si>
+  <si>
+    <t>same 2 failures as the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>same 2 test failures as the ones caused by the original bug</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +872,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF777777"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -395,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +1016,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,6 +1056,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -483,37 +1067,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -849,67 +1421,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4315BCBE-C293-8C48-AF40-FE7D4C9A06FF}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="45">
+        <v>361</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C302C4E-966E-E54E-A26B-052C43363DBC}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="64" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="81.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="68" customWidth="1"/>
-    <col min="14" max="14" width="48.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="72.83203125" customWidth="1"/>
-    <col min="17" max="17" width="39.6640625" customWidth="1"/>
+    <col min="4" max="5" width="74.1640625" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="64" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="81.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="17" width="68" customWidth="1"/>
+    <col min="18" max="18" width="48.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="21" width="72.83203125" customWidth="1"/>
+    <col min="22" max="22" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -917,242 +1564,313 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+    <row r="3" spans="1:22" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="36">
+      <c r="D3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="H3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="31">
         <v>1</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="40">
+      <c r="L3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="33">
         <v>1</v>
       </c>
-      <c r="M3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="42">
+      <c r="P3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="35">
         <v>1</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>10</v>
+      <c r="T3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="184" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34">
+    <row r="4" spans="1:22" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="27">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>16</v>
+      <c r="D4" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="31">
+        <v>2</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="33">
+        <v>2</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="35">
+        <v>2</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="202" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="27">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="29">
+        <v>3</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="31">
+        <v>3</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="38">
-        <v>2</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="40">
-        <v>2</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="42">
-        <v>2</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>11</v>
+      <c r="M5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="33">
+        <v>3</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="35">
+        <v>3</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="202" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="36">
-        <v>3</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="38">
-        <v>3</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="40">
-        <v>3</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="42">
-        <v>3</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+    <row r="6" spans="1:22" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="36">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="29">
         <v>4</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="H6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="M6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="33">
         <v>4</v>
       </c>
-      <c r="I6" s="38">
+      <c r="P6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="40">
+      <c r="R6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="S6" s="35">
         <v>4</v>
       </c>
-      <c r="O6" s="42">
-        <v>4</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>12</v>
+      <c r="T6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
@@ -1161,35 +1879,44 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="38">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="31">
         <v>5</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="42">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="35">
         <v>5</v>
       </c>
-      <c r="P7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="23" t="s">
+      <c r="T7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="23" t="s">
         <v>4</v>
       </c>
+      <c r="V7" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
@@ -1198,191 +1925,238 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="38">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="31">
         <v>6</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="17" t="s">
+      <c r="L8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="T8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
